--- a/Excel-XLSX/UN-MAC.xlsx
+++ b/Excel-XLSX/UN-MAC.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>O7yF8w</t>
+    <t>xiToP6</t>
   </si>
   <si>
     <t>1964</t>
@@ -120,7 +120,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>null</t>
+    <t>-</t>
   </si>
   <si>
     <t>2</t>
@@ -192,6 +192,63 @@
     <t>10</t>
   </si>
   <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
     <t>135</t>
   </si>
   <si>
@@ -207,7 +264,190 @@
     <t>5000</t>
   </si>
   <si>
-    <t>11</t>
+    <t>19</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>PAK</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>1979</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+  </si>
+  <si>
+    <t>SRV</t>
+  </si>
+  <si>
+    <t>VNM</t>
+  </si>
+  <si>
+    <t>3490</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>1980</t>
+  </si>
+  <si>
+    <t>2920</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>1981</t>
+  </si>
+  <si>
+    <t>1200</t>
+  </si>
+  <si>
+    <t>1520</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>1982</t>
+  </si>
+  <si>
+    <t>970</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>1983</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>1984</t>
+  </si>
+  <si>
+    <t>730</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>1985</t>
+  </si>
+  <si>
+    <t>700</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>1986</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>1987</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>1988</t>
+  </si>
+  <si>
+    <t>440</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>1989</t>
+  </si>
+  <si>
+    <t>422</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>1993</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>1994</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>Syrian Arab Rep.</t>
+  </si>
+  <si>
+    <t>SYR</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
   </si>
   <si>
     <t>1978</t>
@@ -222,247 +462,10 @@
     <t>UKN</t>
   </si>
   <si>
+    <t>UNK</t>
+  </si>
+  <si>
     <t>850</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>1979</t>
-  </si>
-  <si>
-    <t>174</t>
-  </si>
-  <si>
-    <t>Viet Nam</t>
-  </si>
-  <si>
-    <t>SRV</t>
-  </si>
-  <si>
-    <t>VNM</t>
-  </si>
-  <si>
-    <t>3490</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>1980</t>
-  </si>
-  <si>
-    <t>2920</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>1981</t>
-  </si>
-  <si>
-    <t>1200</t>
-  </si>
-  <si>
-    <t>1520</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>1982</t>
-  </si>
-  <si>
-    <t>970</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>1983</t>
-  </si>
-  <si>
-    <t>800</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>1984</t>
-  </si>
-  <si>
-    <t>730</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>1985</t>
-  </si>
-  <si>
-    <t>700</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>1986</t>
-  </si>
-  <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>1987</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>1988</t>
-  </si>
-  <si>
-    <t>440</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>1989</t>
-  </si>
-  <si>
-    <t>422</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>1990</t>
-  </si>
-  <si>
-    <t>205</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>1991</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>1992</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>1993</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>1994</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>1995</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>PAK</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>Syrian Arab Rep.</t>
-  </si>
-  <si>
-    <t>SYR</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>IND</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>2017</t>
   </si>
 </sst>
 </file>
@@ -987,8 +990,8 @@
       <c r="U2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>33</v>
+      <c r="V2" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -1055,8 +1058,8 @@
       <c r="U3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V3" s="2" t="s">
-        <v>33</v>
+      <c r="V3" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -1123,8 +1126,8 @@
       <c r="U4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V4" s="2" t="s">
-        <v>33</v>
+      <c r="V4" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5">
@@ -1191,8 +1194,8 @@
       <c r="U5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V5" s="2" t="s">
-        <v>33</v>
+      <c r="V5" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6">
@@ -1259,8 +1262,8 @@
       <c r="U6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V6" s="2" t="s">
-        <v>33</v>
+      <c r="V6" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7">
@@ -1327,8 +1330,8 @@
       <c r="U7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>33</v>
+      <c r="V7" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8">
@@ -1395,8 +1398,8 @@
       <c r="U8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V8" s="2" t="s">
-        <v>33</v>
+      <c r="V8" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9">
@@ -1463,8 +1466,8 @@
       <c r="U9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V9" s="2" t="s">
-        <v>33</v>
+      <c r="V9" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10">
@@ -1531,8 +1534,8 @@
       <c r="U10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V10" s="2" t="s">
-        <v>33</v>
+      <c r="V10" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11">
@@ -1549,16 +1552,16 @@
         <v>57</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>61</v>
@@ -1576,10 +1579,10 @@
         <v>31</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="P11" s="2" t="s">
         <v>33</v>
@@ -1599,8 +1602,8 @@
       <c r="U11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V11" s="2" t="s">
-        <v>33</v>
+      <c r="V11" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12">
@@ -1614,22 +1617,22 @@
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F12" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>29</v>
@@ -1644,10 +1647,10 @@
         <v>31</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="P12" s="2" t="s">
         <v>33</v>
@@ -1667,8 +1670,8 @@
       <c r="U12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V12" s="2" t="s">
-        <v>33</v>
+      <c r="V12" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13">
@@ -1682,22 +1685,22 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>29</v>
@@ -1712,10 +1715,10 @@
         <v>31</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>33</v>
@@ -1735,8 +1738,8 @@
       <c r="U13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V13" s="2" t="s">
-        <v>33</v>
+      <c r="V13" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14">
@@ -1750,22 +1753,22 @@
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>29</v>
@@ -1780,10 +1783,10 @@
         <v>31</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>33</v>
@@ -1803,8 +1806,8 @@
       <c r="U14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V14" s="2" t="s">
-        <v>33</v>
+      <c r="V14" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="15">
@@ -1818,22 +1821,22 @@
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>29</v>
@@ -1848,13 +1851,13 @@
         <v>31</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="Q15" s="2" t="s">
         <v>33</v>
@@ -1871,8 +1874,8 @@
       <c r="U15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V15" s="2" t="s">
-        <v>33</v>
+      <c r="V15" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16">
@@ -1886,22 +1889,22 @@
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>29</v>
@@ -1916,10 +1919,10 @@
         <v>31</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="P16" s="2" t="s">
         <v>33</v>
@@ -1939,8 +1942,8 @@
       <c r="U16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V16" s="2" t="s">
-        <v>33</v>
+      <c r="V16" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17">
@@ -1954,22 +1957,22 @@
         <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>29</v>
@@ -1984,10 +1987,10 @@
         <v>31</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="P17" s="2" t="s">
         <v>33</v>
@@ -2007,8 +2010,8 @@
       <c r="U17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V17" s="2" t="s">
-        <v>33</v>
+      <c r="V17" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="18">
@@ -2022,22 +2025,22 @@
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>29</v>
@@ -2052,10 +2055,10 @@
         <v>31</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>33</v>
@@ -2075,8 +2078,8 @@
       <c r="U18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V18" s="2" t="s">
-        <v>33</v>
+      <c r="V18" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="19">
@@ -2090,22 +2093,22 @@
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>29</v>
@@ -2120,7 +2123,7 @@
         <v>31</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>33</v>
@@ -2143,8 +2146,8 @@
       <c r="U19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V19" s="2" t="s">
-        <v>33</v>
+      <c r="V19" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="20">
@@ -2158,22 +2161,22 @@
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>29</v>
@@ -2188,7 +2191,7 @@
         <v>31</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>33</v>
@@ -2211,8 +2214,8 @@
       <c r="U20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V20" s="2" t="s">
-        <v>33</v>
+      <c r="V20" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="21">
@@ -2226,22 +2229,22 @@
         <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>29</v>
@@ -2256,7 +2259,7 @@
         <v>31</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="O21" s="2" t="s">
         <v>33</v>
@@ -2279,8 +2282,8 @@
       <c r="U21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V21" s="2" t="s">
-        <v>33</v>
+      <c r="V21" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="22">
@@ -2294,22 +2297,22 @@
         <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>29</v>
@@ -2324,7 +2327,7 @@
         <v>31</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="O22" s="2" t="s">
         <v>33</v>
@@ -2347,8 +2350,8 @@
       <c r="U22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V22" s="2" t="s">
-        <v>33</v>
+      <c r="V22" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="23">
@@ -2362,22 +2365,22 @@
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>29</v>
@@ -2392,13 +2395,13 @@
         <v>31</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="O23" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="Q23" s="2" t="s">
         <v>33</v>
@@ -2415,8 +2418,8 @@
       <c r="U23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V23" s="2" t="s">
-        <v>33</v>
+      <c r="V23" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="24">
@@ -2430,22 +2433,22 @@
         <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>29</v>
@@ -2460,7 +2463,7 @@
         <v>31</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="O24" s="2" t="s">
         <v>33</v>
@@ -2483,8 +2486,8 @@
       <c r="U24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V24" s="2" t="s">
-        <v>33</v>
+      <c r="V24" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="25">
@@ -2498,22 +2501,22 @@
         <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>29</v>
@@ -2528,7 +2531,7 @@
         <v>31</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="O25" s="2" t="s">
         <v>33</v>
@@ -2551,8 +2554,8 @@
       <c r="U25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V25" s="2" t="s">
-        <v>33</v>
+      <c r="V25" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="26">
@@ -2566,22 +2569,22 @@
         <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>29</v>
@@ -2596,7 +2599,7 @@
         <v>31</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>33</v>
@@ -2619,8 +2622,8 @@
       <c r="U26" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V26" s="2" t="s">
-        <v>33</v>
+      <c r="V26" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="27">
@@ -2634,22 +2637,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>29</v>
@@ -2664,7 +2667,7 @@
         <v>31</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="O27" s="2" t="s">
         <v>33</v>
@@ -2687,8 +2690,8 @@
       <c r="U27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V27" s="2" t="s">
-        <v>33</v>
+      <c r="V27" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="28">
@@ -2702,22 +2705,22 @@
         <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>29</v>
@@ -2732,7 +2735,7 @@
         <v>31</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="O28" s="2" t="s">
         <v>33</v>
@@ -2755,8 +2758,8 @@
       <c r="U28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V28" s="2" t="s">
-        <v>33</v>
+      <c r="V28" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="29">
@@ -2770,38 +2773,38 @@
         <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N29" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="O29" s="2" t="s">
         <v>33</v>
       </c>
@@ -2823,8 +2826,8 @@
       <c r="U29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V29" s="2" t="s">
-        <v>33</v>
+      <c r="V29" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="30">
@@ -2838,38 +2841,38 @@
         <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="F30" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N30" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="O30" s="2" t="s">
         <v>33</v>
       </c>
@@ -2891,8 +2894,8 @@
       <c r="U30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V30" s="2" t="s">
-        <v>33</v>
+      <c r="V30" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="31">
@@ -2906,22 +2909,22 @@
         <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>29</v>
@@ -2936,10 +2939,10 @@
         <v>31</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="P31" s="2" t="s">
         <v>33</v>
@@ -2959,8 +2962,8 @@
       <c r="U31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V31" s="2" t="s">
-        <v>33</v>
+      <c r="V31" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="32">
@@ -2974,22 +2977,22 @@
         <v>22</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>29</v>
@@ -3004,10 +3007,10 @@
         <v>31</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="P32" s="2" t="s">
         <v>33</v>
@@ -3027,8 +3030,8 @@
       <c r="U32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V32" s="2" t="s">
-        <v>33</v>
+      <c r="V32" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="33">
@@ -3042,22 +3045,22 @@
         <v>22</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>29</v>
@@ -3072,10 +3075,10 @@
         <v>31</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="P33" s="2" t="s">
         <v>33</v>
@@ -3095,8 +3098,8 @@
       <c r="U33" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V33" s="2" t="s">
-        <v>33</v>
+      <c r="V33" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="34">
@@ -3110,22 +3113,22 @@
         <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>29</v>
@@ -3140,10 +3143,10 @@
         <v>31</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="P34" s="2" t="s">
         <v>33</v>
@@ -3163,8 +3166,8 @@
       <c r="U34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V34" s="2" t="s">
-        <v>33</v>
+      <c r="V34" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="35">
@@ -3178,22 +3181,22 @@
         <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>29</v>
@@ -3208,10 +3211,10 @@
         <v>31</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="P35" s="2" t="s">
         <v>33</v>
@@ -3231,8 +3234,8 @@
       <c r="U35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V35" s="2" t="s">
-        <v>33</v>
+      <c r="V35" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="36">
@@ -3246,22 +3249,22 @@
         <v>22</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>29</v>
@@ -3276,10 +3279,10 @@
         <v>31</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="P36" s="2" t="s">
         <v>33</v>
@@ -3299,8 +3302,8 @@
       <c r="U36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V36" s="2" t="s">
-        <v>33</v>
+      <c r="V36" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="37">
@@ -3314,22 +3317,22 @@
         <v>22</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>29</v>
@@ -3344,10 +3347,10 @@
         <v>31</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="P37" s="2" t="s">
         <v>33</v>
@@ -3367,8 +3370,8 @@
       <c r="U37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V37" s="2" t="s">
-        <v>33</v>
+      <c r="V37" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="38">
@@ -3385,19 +3388,19 @@
         <v>25</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>29</v>
@@ -3435,8 +3438,8 @@
       <c r="U38" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>33</v>
+      <c r="V38" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="39">
@@ -3450,22 +3453,22 @@
         <v>22</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>144</v>
+        <v>58</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>29</v>
@@ -3503,8 +3506,8 @@
       <c r="U39" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V39" s="2" t="s">
-        <v>33</v>
+      <c r="V39" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="40">
@@ -3518,22 +3521,22 @@
         <v>22</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>29</v>
@@ -3571,8 +3574,8 @@
       <c r="U40" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V40" s="2" t="s">
-        <v>33</v>
+      <c r="V40" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="41">
@@ -3586,23 +3589,23 @@
         <v>22</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="I41" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="J41" s="2" t="s">
         <v>29</v>
       </c>
@@ -3616,10 +3619,10 @@
         <v>31</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>33</v>
+        <v>149</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="P41" s="2" t="s">
         <v>33</v>
@@ -3639,8 +3642,8 @@
       <c r="U41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V41" s="2" t="s">
-        <v>33</v>
+      <c r="V41" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-MAC.xlsx
+++ b/Excel-XLSX/UN-MAC.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>xiToP6</t>
+    <t>4TkhJ2</t>
   </si>
   <si>
     <t>1964</t>
@@ -990,8 +990,8 @@
       <c r="U2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>34</v>
+      <c r="V2" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -1058,8 +1058,8 @@
       <c r="U3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>34</v>
+      <c r="V3" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -1126,8 +1126,8 @@
       <c r="U4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>34</v>
+      <c r="V4" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5">
@@ -1194,8 +1194,8 @@
       <c r="U5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>34</v>
+      <c r="V5" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6">
@@ -1262,8 +1262,8 @@
       <c r="U6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>34</v>
+      <c r="V6" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7">
@@ -1330,8 +1330,8 @@
       <c r="U7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>34</v>
+      <c r="V7" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8">
@@ -1398,8 +1398,8 @@
       <c r="U8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>34</v>
+      <c r="V8" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9">
@@ -1466,8 +1466,8 @@
       <c r="U9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>34</v>
+      <c r="V9" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10">
@@ -1534,8 +1534,8 @@
       <c r="U10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>34</v>
+      <c r="V10" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11">
@@ -1602,8 +1602,8 @@
       <c r="U11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>34</v>
+      <c r="V11" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12">
@@ -1670,8 +1670,8 @@
       <c r="U12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>34</v>
+      <c r="V12" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13">
@@ -1738,8 +1738,8 @@
       <c r="U13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>34</v>
+      <c r="V13" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14">
@@ -1806,8 +1806,8 @@
       <c r="U14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V14" s="1" t="s">
-        <v>34</v>
+      <c r="V14" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15">
@@ -1874,8 +1874,8 @@
       <c r="U15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V15" s="1" t="s">
-        <v>34</v>
+      <c r="V15" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16">
@@ -1942,8 +1942,8 @@
       <c r="U16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>34</v>
+      <c r="V16" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17">
@@ -2010,8 +2010,8 @@
       <c r="U17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V17" s="1" t="s">
-        <v>34</v>
+      <c r="V17" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="18">
@@ -2078,8 +2078,8 @@
       <c r="U18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>34</v>
+      <c r="V18" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19">
@@ -2146,8 +2146,8 @@
       <c r="U19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>34</v>
+      <c r="V19" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="20">
@@ -2214,8 +2214,8 @@
       <c r="U20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V20" s="1" t="s">
-        <v>34</v>
+      <c r="V20" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="21">
@@ -2282,8 +2282,8 @@
       <c r="U21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V21" s="1" t="s">
-        <v>34</v>
+      <c r="V21" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="22">
@@ -2350,8 +2350,8 @@
       <c r="U22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V22" s="1" t="s">
-        <v>34</v>
+      <c r="V22" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="23">
@@ -2418,8 +2418,8 @@
       <c r="U23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V23" s="1" t="s">
-        <v>34</v>
+      <c r="V23" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="24">
@@ -2486,8 +2486,8 @@
       <c r="U24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V24" s="1" t="s">
-        <v>34</v>
+      <c r="V24" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="25">
@@ -2554,8 +2554,8 @@
       <c r="U25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V25" s="1" t="s">
-        <v>34</v>
+      <c r="V25" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="26">
@@ -2622,8 +2622,8 @@
       <c r="U26" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V26" s="1" t="s">
-        <v>34</v>
+      <c r="V26" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="27">
@@ -2690,8 +2690,8 @@
       <c r="U27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V27" s="1" t="s">
-        <v>34</v>
+      <c r="V27" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="28">
@@ -2758,8 +2758,8 @@
       <c r="U28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V28" s="1" t="s">
-        <v>34</v>
+      <c r="V28" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="29">
@@ -2826,8 +2826,8 @@
       <c r="U29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V29" s="1" t="s">
-        <v>34</v>
+      <c r="V29" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="30">
@@ -2894,8 +2894,8 @@
       <c r="U30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V30" s="1" t="s">
-        <v>34</v>
+      <c r="V30" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="31">
@@ -2962,8 +2962,8 @@
       <c r="U31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V31" s="1" t="s">
-        <v>34</v>
+      <c r="V31" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="32">
@@ -3030,8 +3030,8 @@
       <c r="U32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V32" s="1" t="s">
-        <v>34</v>
+      <c r="V32" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="33">
@@ -3098,8 +3098,8 @@
       <c r="U33" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V33" s="1" t="s">
-        <v>34</v>
+      <c r="V33" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="34">
@@ -3166,8 +3166,8 @@
       <c r="U34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V34" s="1" t="s">
-        <v>34</v>
+      <c r="V34" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="35">
@@ -3234,8 +3234,8 @@
       <c r="U35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V35" s="1" t="s">
-        <v>34</v>
+      <c r="V35" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="36">
@@ -3302,8 +3302,8 @@
       <c r="U36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V36" s="1" t="s">
-        <v>34</v>
+      <c r="V36" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="37">
@@ -3370,8 +3370,8 @@
       <c r="U37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V37" s="1" t="s">
-        <v>34</v>
+      <c r="V37" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="38">
@@ -3438,8 +3438,8 @@
       <c r="U38" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V38" s="1" t="s">
-        <v>34</v>
+      <c r="V38" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="39">
@@ -3506,8 +3506,8 @@
       <c r="U39" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V39" s="1" t="s">
-        <v>34</v>
+      <c r="V39" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="40">
@@ -3574,8 +3574,8 @@
       <c r="U40" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V40" s="1" t="s">
-        <v>34</v>
+      <c r="V40" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="41">
@@ -3642,8 +3642,8 @@
       <c r="U41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V41" s="1" t="s">
-        <v>34</v>
+      <c r="V41" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-MAC.xlsx
+++ b/Excel-XLSX/UN-MAC.xlsx
@@ -192,6 +192,225 @@
     <t>10</t>
   </si>
   <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>MYA</t>
+  </si>
+  <si>
+    <t>MMR</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>1978</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>Unknown </t>
+  </si>
+  <si>
+    <t>UKN</t>
+  </si>
+  <si>
+    <t>UNK</t>
+  </si>
+  <si>
+    <t>850</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>1979</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+  </si>
+  <si>
+    <t>SRV</t>
+  </si>
+  <si>
+    <t>VNM</t>
+  </si>
+  <si>
+    <t>3490</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>1980</t>
+  </si>
+  <si>
+    <t>2920</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>1981</t>
+  </si>
+  <si>
+    <t>1200</t>
+  </si>
+  <si>
+    <t>1520</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>1982</t>
+  </si>
+  <si>
+    <t>970</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>1983</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>1984</t>
+  </si>
+  <si>
+    <t>730</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>1985</t>
+  </si>
+  <si>
+    <t>700</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>1986</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>1987</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>1988</t>
+  </si>
+  <si>
+    <t>440</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>1989</t>
+  </si>
+  <si>
+    <t>422</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>1993</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>1994</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>PAK</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>Syrian Arab Rep.</t>
+  </si>
+  <si>
+    <t>SYR</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
     <t>2010</t>
   </si>
   <si>
@@ -204,268 +423,49 @@
     <t>IND</t>
   </si>
   <si>
-    <t>11</t>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
   </si>
   <si>
     <t>2011</t>
   </si>
   <si>
-    <t>12</t>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
   </si>
   <si>
     <t>2012</t>
   </si>
   <si>
-    <t>13</t>
+    <t>36</t>
   </si>
   <si>
     <t>2013</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>2014</t>
   </si>
   <si>
-    <t>15</t>
+    <t>38</t>
   </si>
   <si>
     <t>2015</t>
   </si>
   <si>
-    <t>16</t>
+    <t>39</t>
   </si>
   <si>
     <t>2016</t>
   </si>
   <si>
-    <t>17</t>
+    <t>40</t>
   </si>
   <si>
     <t>2017</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>MYA</t>
-  </si>
-  <si>
-    <t>MMR</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>PAK</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>1979</t>
-  </si>
-  <si>
-    <t>174</t>
-  </si>
-  <si>
-    <t>Viet Nam</t>
-  </si>
-  <si>
-    <t>SRV</t>
-  </si>
-  <si>
-    <t>VNM</t>
-  </si>
-  <si>
-    <t>3490</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>1980</t>
-  </si>
-  <si>
-    <t>2920</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>1981</t>
-  </si>
-  <si>
-    <t>1200</t>
-  </si>
-  <si>
-    <t>1520</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>1982</t>
-  </si>
-  <si>
-    <t>970</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>1983</t>
-  </si>
-  <si>
-    <t>800</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>1984</t>
-  </si>
-  <si>
-    <t>730</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>1985</t>
-  </si>
-  <si>
-    <t>700</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>1986</t>
-  </si>
-  <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>1987</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>1988</t>
-  </si>
-  <si>
-    <t>440</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>1989</t>
-  </si>
-  <si>
-    <t>422</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>1990</t>
-  </si>
-  <si>
-    <t>205</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>1991</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>1992</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>1993</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>1994</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>1995</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>Syrian Arab Rep.</t>
-  </si>
-  <si>
-    <t>SYR</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>1978</t>
-  </si>
-  <si>
-    <t>262</t>
-  </si>
-  <si>
-    <t>Unknown </t>
-  </si>
-  <si>
-    <t>UKN</t>
-  </si>
-  <si>
-    <t>UNK</t>
-  </si>
-  <si>
-    <t>850</t>
   </si>
 </sst>
 </file>
@@ -1552,16 +1552,16 @@
         <v>57</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>61</v>
@@ -1579,10 +1579,10 @@
         <v>31</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="P11" s="2" t="s">
         <v>33</v>
@@ -1617,22 +1617,22 @@
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>29</v>
@@ -1647,10 +1647,10 @@
         <v>31</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="P12" s="2" t="s">
         <v>33</v>
@@ -1685,22 +1685,22 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>29</v>
@@ -1715,10 +1715,10 @@
         <v>31</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>33</v>
@@ -1753,22 +1753,22 @@
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>29</v>
@@ -1783,10 +1783,10 @@
         <v>31</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>33</v>
@@ -1821,22 +1821,22 @@
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>29</v>
@@ -1851,13 +1851,13 @@
         <v>31</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="Q15" s="2" t="s">
         <v>33</v>
@@ -1889,22 +1889,22 @@
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>29</v>
@@ -1919,10 +1919,10 @@
         <v>31</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="P16" s="2" t="s">
         <v>33</v>
@@ -1957,22 +1957,22 @@
         <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="G17" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="H17" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>29</v>
@@ -1987,10 +1987,10 @@
         <v>31</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="P17" s="2" t="s">
         <v>33</v>
@@ -2025,23 +2025,23 @@
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="I18" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="J18" s="2" t="s">
         <v>29</v>
       </c>
@@ -2055,10 +2055,10 @@
         <v>31</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>33</v>
@@ -2093,22 +2093,22 @@
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>29</v>
@@ -2123,7 +2123,7 @@
         <v>31</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>33</v>
@@ -2161,22 +2161,22 @@
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>29</v>
@@ -2191,7 +2191,7 @@
         <v>31</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>33</v>
@@ -2229,22 +2229,22 @@
         <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>29</v>
@@ -2259,7 +2259,7 @@
         <v>31</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="O21" s="2" t="s">
         <v>33</v>
@@ -2297,22 +2297,22 @@
         <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>29</v>
@@ -2327,7 +2327,7 @@
         <v>31</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="O22" s="2" t="s">
         <v>33</v>
@@ -2365,22 +2365,22 @@
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>29</v>
@@ -2395,13 +2395,13 @@
         <v>31</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="O23" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="Q23" s="2" t="s">
         <v>33</v>
@@ -2433,22 +2433,22 @@
         <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>29</v>
@@ -2463,7 +2463,7 @@
         <v>31</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="O24" s="2" t="s">
         <v>33</v>
@@ -2501,22 +2501,22 @@
         <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>29</v>
@@ -2531,7 +2531,7 @@
         <v>31</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="O25" s="2" t="s">
         <v>33</v>
@@ -2569,22 +2569,22 @@
         <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>29</v>
@@ -2599,7 +2599,7 @@
         <v>31</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>33</v>
@@ -2637,22 +2637,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>29</v>
@@ -2667,7 +2667,7 @@
         <v>31</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="O27" s="2" t="s">
         <v>33</v>
@@ -2705,22 +2705,22 @@
         <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>29</v>
@@ -2735,7 +2735,7 @@
         <v>31</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="O28" s="2" t="s">
         <v>33</v>
@@ -2773,22 +2773,22 @@
         <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>29</v>
@@ -2803,7 +2803,7 @@
         <v>31</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>33</v>
@@ -2841,22 +2841,22 @@
         <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>29</v>
@@ -2871,7 +2871,7 @@
         <v>31</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>121</v>
+        <v>46</v>
       </c>
       <c r="O30" s="2" t="s">
         <v>33</v>
@@ -2909,22 +2909,22 @@
         <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="F31" s="2" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>29</v>
@@ -2939,10 +2939,10 @@
         <v>31</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>124</v>
+        <v>33</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="P31" s="2" t="s">
         <v>33</v>
@@ -2977,22 +2977,22 @@
         <v>22</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>29</v>
@@ -3007,10 +3007,10 @@
         <v>31</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>127</v>
+        <v>33</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="P32" s="2" t="s">
         <v>33</v>
@@ -3045,22 +3045,22 @@
         <v>22</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="H33" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="I33" s="1" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>29</v>
@@ -3075,10 +3075,10 @@
         <v>31</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="P33" s="2" t="s">
         <v>33</v>
@@ -3113,22 +3113,22 @@
         <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>29</v>
@@ -3143,10 +3143,10 @@
         <v>31</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="P34" s="2" t="s">
         <v>33</v>
@@ -3181,22 +3181,22 @@
         <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>29</v>
@@ -3211,10 +3211,10 @@
         <v>31</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="P35" s="2" t="s">
         <v>33</v>
@@ -3249,22 +3249,22 @@
         <v>22</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="I36" s="1" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>29</v>
@@ -3279,10 +3279,10 @@
         <v>31</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="P36" s="2" t="s">
         <v>33</v>
@@ -3317,22 +3317,22 @@
         <v>22</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>29</v>
@@ -3347,10 +3347,10 @@
         <v>31</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="P37" s="2" t="s">
         <v>33</v>
@@ -3388,19 +3388,19 @@
         <v>25</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>29</v>
@@ -3453,22 +3453,22 @@
         <v>22</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>58</v>
+        <v>145</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>29</v>
@@ -3521,22 +3521,22 @@
         <v>22</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>63</v>
+        <v>147</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>29</v>
@@ -3589,22 +3589,22 @@
         <v>22</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>29</v>
@@ -3619,10 +3619,10 @@
         <v>31</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>149</v>
+        <v>33</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="P41" s="2" t="s">
         <v>33</v>

--- a/Excel-XLSX/UN-MAC.xlsx
+++ b/Excel-XLSX/UN-MAC.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>4TkhJ2</t>
+    <t>aE5jCq</t>
   </si>
   <si>
     <t>1964</t>
